--- a/data/trans_bre/P15E_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P15E_R-Dificultad-trans_bre.xlsx
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>14.87157771677984</v>
+        <v>14.87157771677983</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.2247572685049068</v>
+        <v>0.2247572685049066</v>
       </c>
     </row>
     <row r="5">
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-17.62896118563552</v>
+        <v>-19.07550720172147</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-0.1981980712513124</v>
+        <v>-0.2012951902599548</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>62.27274133906045</v>
+        <v>56.60010119912346</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2.631504852770881</v>
+        <v>2.186470483841995</v>
       </c>
     </row>
     <row r="7">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>14.42444966059656</v>
+        <v>14.42444966059658</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.2354787277285698</v>
+        <v>0.2354787277285702</v>
       </c>
     </row>
     <row r="8">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-7.998432582204202</v>
+        <v>-10.40996664464256</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.09618200467259458</v>
+        <v>-0.1351770230337831</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>41.86048242958198</v>
+        <v>38.70444984922393</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.127420757532532</v>
+        <v>0.9624674532718392</v>
       </c>
     </row>
     <row r="10">
@@ -644,10 +644,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>3.486312362627952</v>
+        <v>3.486312362627941</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>0.05418447428162886</v>
+        <v>0.05418447428162868</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-20.64263124031873</v>
+        <v>-22.6310027997699</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.2634865315494647</v>
+        <v>-0.2774145696416562</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>29.6056661795894</v>
+        <v>30.74164113969483</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>0.6747709794610119</v>
+        <v>0.6896309731556172</v>
       </c>
     </row>
     <row r="13">
@@ -690,10 +690,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>2.15320237790515</v>
+        <v>2.153202377905139</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.03244656058324228</v>
+        <v>0.03244656058324211</v>
       </c>
     </row>
     <row r="14">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-30.02440625577045</v>
+        <v>-31.94938811885179</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3499852514217966</v>
+        <v>-0.3662053630568015</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>36.64057646705252</v>
+        <v>34.15920234078799</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.9031510222417435</v>
+        <v>0.8193404661444705</v>
       </c>
     </row>
     <row r="16">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>9.571817594612286</v>
+        <v>9.571817594612298</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>0.149518871628406</v>
+        <v>0.1495188716284061</v>
       </c>
     </row>
     <row r="17">
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.423520181640021</v>
+        <v>-5.220235339843851</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>-0.07162321258483541</v>
+        <v>-0.06930490439596741</v>
       </c>
     </row>
     <row r="18">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>24.3013989367504</v>
+        <v>22.64907922134762</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>0.4693853703330182</v>
+        <v>0.4324634050423591</v>
       </c>
     </row>
     <row r="19">
